--- a/output/prompt_chain_experiment_2023-04-14_0113.xlsx
+++ b/output/prompt_chain_experiment_2023-04-14_0113.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93345f1c83a5c894/lighthouse/Ginkgo coding/content-summarization/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{4F90CD2E-2DE6-4B18-B4B6-2D9E0CBBE2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E2FCF64-A464-4CD5-8FC3-F472F93B99B4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4F90CD2E-2DE6-4B18-B4B6-2D9E0CBBE2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C57909D9-E54E-4515-B0AE-598B4BB5FE74}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8664" yWindow="17172" windowWidth="19416" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prompt_experiments_Hypohydratio" sheetId="1" r:id="rId1"/>
@@ -1101,15 +1101,15 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="7" width="49.5546875" style="2" customWidth="1"/>
     <col min="8" max="13" width="42.5546875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
